--- a/Documentos Grupo Colombiano/Hoja1.xlsx
+++ b/Documentos Grupo Colombiano/Hoja1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="263">
   <si>
     <t>ID</t>
   </si>
@@ -236,9 +236,6 @@
   </si>
   <si>
     <t>esmolqui0527@gmail.com</t>
-  </si>
-  <si>
-    <t>facebook</t>
   </si>
   <si>
     <t>Inscripción Cursos Virtuales Cortos</t>
@@ -1638,8 +1635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="W5" workbookViewId="0">
+      <selection activeCell="AE28" sqref="AE28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1874,6 +1871,9 @@
       <c r="AC2" t="s">
         <v>64</v>
       </c>
+      <c r="AE2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1951,8 +1951,8 @@
       <c r="AC3" t="s">
         <v>64</v>
       </c>
-      <c r="AE3" t="s">
-        <v>74</v>
+      <c r="AE3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.25">
@@ -1972,13 +1972,13 @@
         <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4" s="2">
         <v>186148165246</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s">
         <v>52</v>
@@ -1996,16 +1996,16 @@
         <v>54</v>
       </c>
       <c r="O4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4" t="s">
         <v>77</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>78</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>79</v>
-      </c>
-      <c r="R4" t="s">
-        <v>80</v>
       </c>
       <c r="S4">
         <v>1075242478</v>
@@ -2014,31 +2014,34 @@
         <v>59</v>
       </c>
       <c r="V4" t="s">
+        <v>80</v>
+      </c>
+      <c r="W4" t="s">
         <v>81</v>
-      </c>
-      <c r="W4" t="s">
-        <v>82</v>
       </c>
       <c r="X4">
         <v>3115163264</v>
       </c>
       <c r="Z4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB4">
         <v>4</v>
       </c>
       <c r="AD4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE4">
+        <v>2</v>
+      </c>
+      <c r="AF4" t="s">
         <v>84</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>85</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AI4" t="s">
         <v>86</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>87</v>
       </c>
       <c r="AJ4">
         <v>3183658723</v>
@@ -2047,19 +2050,19 @@
         <v>59</v>
       </c>
       <c r="AM4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN4" t="s">
         <v>88</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AO4" t="s">
         <v>89</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AP4" t="s">
         <v>90</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AR4" t="s">
         <v>91</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>92</v>
       </c>
       <c r="AS4">
         <v>3133728234</v>
@@ -2068,7 +2071,7 @@
         <v>59</v>
       </c>
       <c r="AV4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.25">
@@ -2088,13 +2091,13 @@
         <v>48</v>
       </c>
       <c r="F5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" t="s">
         <v>94</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>95</v>
-      </c>
-      <c r="H5" t="s">
-        <v>96</v>
       </c>
       <c r="I5" t="s">
         <v>52</v>
@@ -2109,19 +2112,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O5" t="s">
         <v>97</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>98</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>99</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>100</v>
-      </c>
-      <c r="R5" t="s">
-        <v>101</v>
       </c>
       <c r="S5">
         <v>1085269225</v>
@@ -2130,22 +2133,25 @@
         <v>59</v>
       </c>
       <c r="V5" t="s">
+        <v>101</v>
+      </c>
+      <c r="W5" t="s">
         <v>102</v>
-      </c>
-      <c r="W5" t="s">
-        <v>103</v>
       </c>
       <c r="X5">
         <v>3183428462</v>
       </c>
       <c r="Z5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA5">
         <v>20</v>
       </c>
       <c r="AC5" t="s">
         <v>64</v>
+      </c>
+      <c r="AE5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.25">
@@ -2168,10 +2174,10 @@
         <v>49</v>
       </c>
       <c r="G6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" t="s">
         <v>105</v>
-      </c>
-      <c r="H6" t="s">
-        <v>106</v>
       </c>
       <c r="I6" t="s">
         <v>52</v>
@@ -2189,16 +2195,16 @@
         <v>54</v>
       </c>
       <c r="O6" t="s">
+        <v>106</v>
+      </c>
+      <c r="P6" t="s">
         <v>107</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>108</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>109</v>
-      </c>
-      <c r="R6" t="s">
-        <v>110</v>
       </c>
       <c r="S6">
         <v>1042773509</v>
@@ -2207,22 +2213,25 @@
         <v>59</v>
       </c>
       <c r="V6" t="s">
+        <v>110</v>
+      </c>
+      <c r="W6" t="s">
         <v>111</v>
-      </c>
-      <c r="W6" t="s">
-        <v>112</v>
       </c>
       <c r="X6">
         <v>3218445178</v>
       </c>
       <c r="Z6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AA6">
         <v>3</v>
       </c>
       <c r="AC6" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="AE6">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
@@ -2245,10 +2254,10 @@
         <v>49</v>
       </c>
       <c r="G7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" t="s">
         <v>105</v>
-      </c>
-      <c r="H7" t="s">
-        <v>106</v>
       </c>
       <c r="I7" t="s">
         <v>52</v>
@@ -2266,16 +2275,16 @@
         <v>54</v>
       </c>
       <c r="O7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P7" t="s">
         <v>107</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>108</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>109</v>
-      </c>
-      <c r="R7" t="s">
-        <v>110</v>
       </c>
       <c r="S7">
         <v>1042773509</v>
@@ -2284,22 +2293,25 @@
         <v>59</v>
       </c>
       <c r="V7" t="s">
+        <v>110</v>
+      </c>
+      <c r="W7" t="s">
         <v>111</v>
-      </c>
-      <c r="W7" t="s">
-        <v>112</v>
       </c>
       <c r="X7">
         <v>3218445178</v>
       </c>
       <c r="Z7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AA7">
         <v>3</v>
       </c>
       <c r="AC7" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="AE7">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
@@ -2322,10 +2334,10 @@
         <v>49</v>
       </c>
       <c r="G8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" t="s">
         <v>105</v>
-      </c>
-      <c r="H8" t="s">
-        <v>106</v>
       </c>
       <c r="I8" t="s">
         <v>52</v>
@@ -2343,16 +2355,16 @@
         <v>54</v>
       </c>
       <c r="O8" t="s">
+        <v>106</v>
+      </c>
+      <c r="P8" t="s">
         <v>107</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>108</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>109</v>
-      </c>
-      <c r="R8" t="s">
-        <v>110</v>
       </c>
       <c r="S8">
         <v>1042773509</v>
@@ -2361,22 +2373,25 @@
         <v>59</v>
       </c>
       <c r="V8" t="s">
+        <v>110</v>
+      </c>
+      <c r="W8" t="s">
         <v>111</v>
-      </c>
-      <c r="W8" t="s">
-        <v>112</v>
       </c>
       <c r="X8">
         <v>3218445178</v>
       </c>
       <c r="Z8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AA8">
         <v>3</v>
       </c>
       <c r="AC8" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="AE8">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
@@ -2399,10 +2414,10 @@
         <v>49</v>
       </c>
       <c r="G9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" t="s">
         <v>105</v>
-      </c>
-      <c r="H9" t="s">
-        <v>106</v>
       </c>
       <c r="I9" t="s">
         <v>52</v>
@@ -2420,16 +2435,16 @@
         <v>54</v>
       </c>
       <c r="O9" t="s">
+        <v>114</v>
+      </c>
+      <c r="P9" t="s">
         <v>115</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>116</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>117</v>
-      </c>
-      <c r="R9" t="s">
-        <v>118</v>
       </c>
       <c r="S9">
         <v>1042771642</v>
@@ -2438,10 +2453,10 @@
         <v>59</v>
       </c>
       <c r="V9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="W9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X9">
         <v>3207178602</v>
@@ -2450,13 +2465,16 @@
         <v>3235885727</v>
       </c>
       <c r="Z9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AA9">
         <v>3</v>
       </c>
       <c r="AC9" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="AE9">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
@@ -2476,16 +2494,16 @@
         <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G10" s="2">
         <v>190127196237</v>
       </c>
       <c r="H10" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" t="s">
         <v>121</v>
-      </c>
-      <c r="I10" t="s">
-        <v>122</v>
       </c>
       <c r="K10" t="s">
         <v>53</v>
@@ -2500,13 +2518,13 @@
         <v>54</v>
       </c>
       <c r="O10" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q10" t="s">
         <v>123</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>124</v>
-      </c>
-      <c r="R10" t="s">
-        <v>125</v>
       </c>
       <c r="S10">
         <v>46378452</v>
@@ -2515,22 +2533,25 @@
         <v>59</v>
       </c>
       <c r="V10" t="s">
+        <v>125</v>
+      </c>
+      <c r="W10" t="s">
         <v>126</v>
-      </c>
-      <c r="W10" t="s">
-        <v>127</v>
       </c>
       <c r="X10">
         <v>3213755109</v>
       </c>
       <c r="Z10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA10">
         <v>20</v>
       </c>
       <c r="AC10" t="s">
         <v>64</v>
+      </c>
+      <c r="AE10">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">
@@ -2550,16 +2571,16 @@
         <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11" t="s">
         <v>129</v>
       </c>
-      <c r="H11" t="s">
-        <v>130</v>
-      </c>
       <c r="I11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s">
         <v>53</v>
@@ -2574,16 +2595,16 @@
         <v>54</v>
       </c>
       <c r="O11" t="s">
+        <v>130</v>
+      </c>
+      <c r="P11" t="s">
         <v>131</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>132</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>133</v>
-      </c>
-      <c r="R11" t="s">
-        <v>134</v>
       </c>
       <c r="S11">
         <v>1112099723</v>
@@ -2592,10 +2613,10 @@
         <v>59</v>
       </c>
       <c r="V11" t="s">
+        <v>134</v>
+      </c>
+      <c r="W11" t="s">
         <v>135</v>
-      </c>
-      <c r="W11" t="s">
-        <v>136</v>
       </c>
       <c r="X11">
         <v>3146170655</v>
@@ -2604,13 +2625,16 @@
         <v>3185860597</v>
       </c>
       <c r="Z11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA11">
         <v>20</v>
       </c>
       <c r="AC11" t="s">
         <v>64</v>
+      </c>
+      <c r="AE11">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.25">
@@ -2630,10 +2654,10 @@
         <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H12" t="s">
         <v>51</v>
@@ -2657,13 +2681,13 @@
         <v>55</v>
       </c>
       <c r="P12" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q12" t="s">
         <v>139</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>140</v>
-      </c>
-      <c r="R12" t="s">
-        <v>141</v>
       </c>
       <c r="S12">
         <v>40434621</v>
@@ -2672,10 +2696,10 @@
         <v>59</v>
       </c>
       <c r="V12" t="s">
+        <v>141</v>
+      </c>
+      <c r="W12" t="s">
         <v>142</v>
-      </c>
-      <c r="W12" t="s">
-        <v>143</v>
       </c>
       <c r="X12">
         <v>3118366246</v>
@@ -2684,13 +2708,16 @@
         <v>3202592811</v>
       </c>
       <c r="Z12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA12">
         <v>20</v>
       </c>
       <c r="AC12" t="s">
         <v>64</v>
+      </c>
+      <c r="AE12">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.25">
@@ -2710,16 +2737,16 @@
         <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" t="s">
         <v>145</v>
       </c>
-      <c r="H13" t="s">
-        <v>146</v>
-      </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K13" t="s">
         <v>53</v>
@@ -2734,16 +2761,16 @@
         <v>54</v>
       </c>
       <c r="O13" t="s">
+        <v>146</v>
+      </c>
+      <c r="P13" t="s">
         <v>147</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>148</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>149</v>
-      </c>
-      <c r="R13" t="s">
-        <v>150</v>
       </c>
       <c r="S13">
         <v>1006580455</v>
@@ -2752,10 +2779,10 @@
         <v>59</v>
       </c>
       <c r="V13" t="s">
+        <v>150</v>
+      </c>
+      <c r="W13" t="s">
         <v>151</v>
-      </c>
-      <c r="W13" t="s">
-        <v>152</v>
       </c>
       <c r="X13">
         <v>3215499229</v>
@@ -2764,13 +2791,16 @@
         <v>3215499229</v>
       </c>
       <c r="Z13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA13">
         <v>16</v>
       </c>
       <c r="AC13" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="AE13">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
@@ -2790,16 +2820,16 @@
         <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H14" t="s">
         <v>154</v>
       </c>
-      <c r="H14" t="s">
-        <v>155</v>
-      </c>
       <c r="I14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K14" t="s">
         <v>53</v>
@@ -2814,13 +2844,13 @@
         <v>54</v>
       </c>
       <c r="O14" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q14" t="s">
         <v>156</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>157</v>
-      </c>
-      <c r="R14" t="s">
-        <v>158</v>
       </c>
       <c r="S14">
         <v>1077442743</v>
@@ -2829,22 +2859,25 @@
         <v>59</v>
       </c>
       <c r="V14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="X14">
         <v>3208939487</v>
       </c>
       <c r="Z14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AA14">
         <v>20</v>
       </c>
       <c r="AC14" t="s">
         <v>64</v>
+      </c>
+      <c r="AE14">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
@@ -2864,16 +2897,16 @@
         <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G15" s="2">
         <v>152200155199</v>
       </c>
       <c r="H15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K15" t="s">
         <v>53</v>
@@ -2888,13 +2921,13 @@
         <v>54</v>
       </c>
       <c r="O15" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q15" t="s">
         <v>162</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>163</v>
-      </c>
-      <c r="R15" t="s">
-        <v>164</v>
       </c>
       <c r="S15">
         <v>1007490987</v>
@@ -2903,10 +2936,10 @@
         <v>59</v>
       </c>
       <c r="V15" t="s">
+        <v>164</v>
+      </c>
+      <c r="W15" t="s">
         <v>165</v>
-      </c>
-      <c r="W15" t="s">
-        <v>166</v>
       </c>
       <c r="X15">
         <v>3178685456</v>
@@ -2915,13 +2948,16 @@
         <v>3137220587</v>
       </c>
       <c r="Z15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AA15">
         <v>20</v>
       </c>
       <c r="AC15" t="s">
         <v>64</v>
+      </c>
+      <c r="AE15">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
@@ -2941,16 +2977,16 @@
         <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G16" t="s">
+        <v>167</v>
+      </c>
+      <c r="H16" t="s">
         <v>168</v>
       </c>
-      <c r="H16" t="s">
-        <v>169</v>
-      </c>
       <c r="I16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K16" t="s">
         <v>53</v>
@@ -2965,16 +3001,16 @@
         <v>54</v>
       </c>
       <c r="O16" t="s">
+        <v>169</v>
+      </c>
+      <c r="P16" t="s">
         <v>170</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>171</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>172</v>
-      </c>
-      <c r="R16" t="s">
-        <v>173</v>
       </c>
       <c r="S16">
         <v>45562780</v>
@@ -2983,16 +3019,16 @@
         <v>59</v>
       </c>
       <c r="V16" t="s">
+        <v>173</v>
+      </c>
+      <c r="W16" t="s">
         <v>174</v>
-      </c>
-      <c r="W16" t="s">
-        <v>175</v>
       </c>
       <c r="X16">
         <v>3145789032</v>
       </c>
       <c r="Z16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AA16">
         <v>20</v>
@@ -3000,8 +3036,11 @@
       <c r="AC16" t="s">
         <v>64</v>
       </c>
+      <c r="AE16">
+        <v>2</v>
+      </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>256</v>
       </c>
@@ -3018,16 +3057,16 @@
         <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G17" t="s">
+        <v>176</v>
+      </c>
+      <c r="H17" t="s">
         <v>177</v>
       </c>
-      <c r="H17" t="s">
-        <v>178</v>
-      </c>
       <c r="I17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K17" t="s">
         <v>53</v>
@@ -3042,16 +3081,16 @@
         <v>54</v>
       </c>
       <c r="O17" t="s">
+        <v>178</v>
+      </c>
+      <c r="P17" t="s">
         <v>179</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>180</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>181</v>
-      </c>
-      <c r="R17" t="s">
-        <v>182</v>
       </c>
       <c r="S17">
         <v>1094896770</v>
@@ -3060,16 +3099,16 @@
         <v>59</v>
       </c>
       <c r="V17" t="s">
+        <v>182</v>
+      </c>
+      <c r="W17" t="s">
         <v>183</v>
-      </c>
-      <c r="W17" t="s">
-        <v>184</v>
       </c>
       <c r="X17">
         <v>3157377041</v>
       </c>
       <c r="Z17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AA17">
         <v>20</v>
@@ -3077,8 +3116,11 @@
       <c r="AC17" t="s">
         <v>64</v>
       </c>
+      <c r="AE17">
+        <v>2</v>
+      </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>255</v>
       </c>
@@ -3095,16 +3137,16 @@
         <v>48</v>
       </c>
       <c r="F18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G18" t="s">
+        <v>185</v>
+      </c>
+      <c r="H18" t="s">
         <v>186</v>
       </c>
-      <c r="H18" t="s">
-        <v>187</v>
-      </c>
       <c r="I18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K18" t="s">
         <v>53</v>
@@ -3119,16 +3161,16 @@
         <v>54</v>
       </c>
       <c r="O18" t="s">
+        <v>187</v>
+      </c>
+      <c r="P18" t="s">
         <v>188</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>189</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>190</v>
-      </c>
-      <c r="R18" t="s">
-        <v>191</v>
       </c>
       <c r="S18">
         <v>1110504279</v>
@@ -3137,13 +3179,13 @@
         <v>59</v>
       </c>
       <c r="U18" t="s">
+        <v>191</v>
+      </c>
+      <c r="V18" t="s">
+        <v>191</v>
+      </c>
+      <c r="W18" t="s">
         <v>192</v>
-      </c>
-      <c r="V18" t="s">
-        <v>192</v>
-      </c>
-      <c r="W18" t="s">
-        <v>193</v>
       </c>
       <c r="X18">
         <v>337131922</v>
@@ -3152,7 +3194,7 @@
         <v>3108897057</v>
       </c>
       <c r="Z18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AA18">
         <v>20</v>
@@ -3160,8 +3202,11 @@
       <c r="AC18" t="s">
         <v>64</v>
       </c>
+      <c r="AE18">
+        <v>2</v>
+      </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>254</v>
       </c>
@@ -3184,10 +3229,10 @@
         <v>177252253197</v>
       </c>
       <c r="H19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K19" t="s">
         <v>53</v>
@@ -3202,16 +3247,16 @@
         <v>54</v>
       </c>
       <c r="O19" t="s">
+        <v>195</v>
+      </c>
+      <c r="P19" t="s">
         <v>196</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>197</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>198</v>
-      </c>
-      <c r="R19" t="s">
-        <v>199</v>
       </c>
       <c r="S19">
         <v>1124019463</v>
@@ -3220,10 +3265,10 @@
         <v>59</v>
       </c>
       <c r="V19" t="s">
+        <v>199</v>
+      </c>
+      <c r="W19" t="s">
         <v>200</v>
-      </c>
-      <c r="W19" t="s">
-        <v>201</v>
       </c>
       <c r="X19">
         <v>3007770031</v>
@@ -3232,7 +3277,7 @@
         <v>3122578073</v>
       </c>
       <c r="Z19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AA19">
         <v>5</v>
@@ -3240,8 +3285,11 @@
       <c r="AC19" t="s">
         <v>64</v>
       </c>
+      <c r="AE19">
+        <v>3</v>
+      </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>253</v>
       </c>
@@ -3261,13 +3309,13 @@
         <v>49</v>
       </c>
       <c r="G20" t="s">
+        <v>202</v>
+      </c>
+      <c r="H20" t="s">
         <v>203</v>
       </c>
-      <c r="H20" t="s">
-        <v>204</v>
-      </c>
       <c r="I20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K20" t="s">
         <v>53</v>
@@ -3282,37 +3330,37 @@
         <v>54</v>
       </c>
       <c r="O20" t="s">
+        <v>204</v>
+      </c>
+      <c r="P20" t="s">
         <v>205</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>206</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>207</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>208</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>209</v>
       </c>
-      <c r="T20" t="s">
+      <c r="V20" t="s">
         <v>210</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>211</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>212</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>213</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>214</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>215</v>
       </c>
       <c r="AA20">
         <v>5</v>
@@ -3320,8 +3368,11 @@
       <c r="AC20" t="s">
         <v>64</v>
       </c>
+      <c r="AE20">
+        <v>3</v>
+      </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>252</v>
       </c>
@@ -3338,16 +3389,16 @@
         <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H21" t="s">
         <v>216</v>
       </c>
-      <c r="H21" t="s">
-        <v>217</v>
-      </c>
       <c r="I21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K21" t="s">
         <v>53</v>
@@ -3362,16 +3413,16 @@
         <v>54</v>
       </c>
       <c r="O21" t="s">
+        <v>217</v>
+      </c>
+      <c r="P21" t="s">
         <v>218</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>219</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>220</v>
-      </c>
-      <c r="R21" t="s">
-        <v>221</v>
       </c>
       <c r="S21">
         <v>49746613</v>
@@ -3380,16 +3431,16 @@
         <v>59</v>
       </c>
       <c r="V21" t="s">
+        <v>221</v>
+      </c>
+      <c r="W21" t="s">
         <v>222</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>223</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Z21" t="s">
         <v>224</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>225</v>
       </c>
       <c r="AA21">
         <v>19</v>
@@ -3397,8 +3448,11 @@
       <c r="AC21" t="s">
         <v>64</v>
       </c>
+      <c r="AE21">
+        <v>3</v>
+      </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>251</v>
       </c>
@@ -3415,16 +3469,16 @@
         <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s">
+        <v>225</v>
+      </c>
+      <c r="H22" t="s">
         <v>226</v>
       </c>
-      <c r="H22" t="s">
-        <v>227</v>
-      </c>
       <c r="I22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K22" t="s">
         <v>53</v>
@@ -3436,16 +3490,16 @@
         <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O22" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q22" t="s">
         <v>228</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>229</v>
-      </c>
-      <c r="R22" t="s">
-        <v>230</v>
       </c>
       <c r="S22">
         <v>71185987</v>
@@ -3454,16 +3508,16 @@
         <v>59</v>
       </c>
       <c r="V22" t="s">
+        <v>230</v>
+      </c>
+      <c r="W22" t="s">
         <v>231</v>
-      </c>
-      <c r="W22" t="s">
-        <v>232</v>
       </c>
       <c r="X22">
         <v>3125365578</v>
       </c>
       <c r="Z22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AA22">
         <v>20</v>
@@ -3471,8 +3525,11 @@
       <c r="AC22" t="s">
         <v>64</v>
       </c>
+      <c r="AE22">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>250</v>
       </c>
@@ -3495,10 +3552,10 @@
         <v>186119219127</v>
       </c>
       <c r="H23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K23" t="s">
         <v>53</v>
@@ -3510,19 +3567,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O23" t="s">
+        <v>234</v>
+      </c>
+      <c r="P23" t="s">
         <v>235</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>236</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>237</v>
-      </c>
-      <c r="R23" t="s">
-        <v>238</v>
       </c>
       <c r="S23">
         <v>1085905869</v>
@@ -3531,10 +3588,10 @@
         <v>59</v>
       </c>
       <c r="V23" t="s">
+        <v>238</v>
+      </c>
+      <c r="W23" t="s">
         <v>239</v>
-      </c>
-      <c r="W23" t="s">
-        <v>240</v>
       </c>
       <c r="X23">
         <v>3116372220</v>
@@ -3543,16 +3600,19 @@
         <v>3116372220</v>
       </c>
       <c r="Z23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AA23">
         <v>5</v>
       </c>
       <c r="AC23" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="AE23">
+        <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>249</v>
       </c>
@@ -3575,10 +3635,10 @@
         <v>201244143103</v>
       </c>
       <c r="H24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K24" t="s">
         <v>53</v>
@@ -3593,16 +3653,16 @@
         <v>54</v>
       </c>
       <c r="O24" t="s">
+        <v>242</v>
+      </c>
+      <c r="P24" t="s">
         <v>243</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>244</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>245</v>
-      </c>
-      <c r="R24" t="s">
-        <v>246</v>
       </c>
       <c r="S24">
         <v>27214021</v>
@@ -3611,16 +3671,16 @@
         <v>59</v>
       </c>
       <c r="V24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="W24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="X24">
         <v>3132700731</v>
       </c>
       <c r="Z24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA24">
         <v>5</v>
@@ -3628,8 +3688,11 @@
       <c r="AC24" t="s">
         <v>64</v>
       </c>
+      <c r="AE24">
+        <v>3</v>
+      </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>248</v>
       </c>
@@ -3646,16 +3709,16 @@
         <v>48</v>
       </c>
       <c r="F25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G25" s="2">
         <v>186119171217</v>
       </c>
       <c r="H25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K25" t="s">
         <v>53</v>
@@ -3670,16 +3733,16 @@
         <v>54</v>
       </c>
       <c r="O25" t="s">
+        <v>248</v>
+      </c>
+      <c r="P25" t="s">
         <v>249</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>250</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>251</v>
-      </c>
-      <c r="R25" t="s">
-        <v>252</v>
       </c>
       <c r="S25">
         <v>27604983</v>
@@ -3688,10 +3751,10 @@
         <v>59</v>
       </c>
       <c r="V25" t="s">
+        <v>252</v>
+      </c>
+      <c r="W25" t="s">
         <v>253</v>
-      </c>
-      <c r="W25" t="s">
-        <v>254</v>
       </c>
       <c r="X25">
         <v>3107973640</v>
@@ -3700,7 +3763,7 @@
         <v>3107973640</v>
       </c>
       <c r="Z25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AA25">
         <v>20</v>
@@ -3708,8 +3771,11 @@
       <c r="AC25" t="s">
         <v>64</v>
       </c>
+      <c r="AE25">
+        <v>2</v>
+      </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>247</v>
       </c>
@@ -3726,16 +3792,16 @@
         <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G26" s="2">
         <v>190127196166</v>
       </c>
       <c r="H26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K26" t="s">
         <v>53</v>
@@ -3750,13 +3816,13 @@
         <v>54</v>
       </c>
       <c r="O26" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q26" t="s">
         <v>257</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="R26" t="s">
         <v>258</v>
-      </c>
-      <c r="R26" t="s">
-        <v>259</v>
       </c>
       <c r="S26">
         <v>1124481375</v>
@@ -3765,10 +3831,10 @@
         <v>59</v>
       </c>
       <c r="V26" t="s">
+        <v>259</v>
+      </c>
+      <c r="W26" t="s">
         <v>260</v>
-      </c>
-      <c r="W26" t="s">
-        <v>261</v>
       </c>
       <c r="X26">
         <v>3207735518</v>
@@ -3777,13 +3843,16 @@
         <v>3138792434</v>
       </c>
       <c r="Z26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AA26">
         <v>20</v>
       </c>
       <c r="AC26" t="s">
-        <v>263</v>
+        <v>262</v>
+      </c>
+      <c r="AE26">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
